--- a/inputs/Y.xlsx
+++ b/inputs/Y.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gabriele/Desktop/Poli/OMGP_python/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37D25A38-A2E9-3342-B7A3-A927093185B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2AC20F53-56E2-E54F-A9AD-EAD8609F661D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{11A499D1-DA57-7D4C-BE66-4CED774D7DD4}"/>
   </bookViews>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD032271-4E93-874A-BCBE-ABCEF284B635}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -398,482 +398,482 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.0467565532605199</v>
+        <v>0.26414840555765901</v>
       </c>
       <c r="B2">
-        <v>-1.40209358158662</v>
+        <v>0.35941461585450202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.18231931822052699</v>
+        <v>0.271378936151633</v>
       </c>
       <c r="B3">
-        <v>-2.4229724074766201</v>
+        <v>0.41116652981444501</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2.0366661119180201</v>
+        <v>-6.5547541000036694E-2</v>
       </c>
       <c r="B4">
-        <v>-1.4697136527802701</v>
+        <v>-0.71887381464772804</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.32282308970261198</v>
+        <v>0.346458836375797</v>
       </c>
       <c r="B5">
-        <v>-2.43999924089721</v>
+        <v>0.43144065998307501</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.98571599610961</v>
+        <v>-0.51127056297027695</v>
       </c>
       <c r="B6">
-        <v>-1.3810812698983399</v>
+        <v>0.86437608247204101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.130629558769462</v>
+        <v>0.31146104398476898</v>
       </c>
       <c r="B7">
-        <v>1.0920171580529801</v>
+        <v>0.46994230031891698</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2.0580918283965399</v>
+        <v>0.37193867060387098</v>
       </c>
       <c r="B8">
-        <v>-1.46481129169536</v>
+        <v>0.36991944597900001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.9085201397667999</v>
+        <v>0.31225567565283202</v>
       </c>
       <c r="B9">
-        <v>-1.3922028578739201</v>
+        <v>0.41722736181888798</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1.91107156432283</v>
+        <v>0.388181492458542</v>
       </c>
       <c r="B10">
-        <v>-1.4482116465847099</v>
+        <v>0.52919279187456403</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.22293462694959701</v>
+        <v>0.40284164321316501</v>
       </c>
       <c r="B11">
-        <v>1.0275410332600901</v>
+        <v>0.56209011030899703</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.31649371343444299</v>
+        <v>0.409401198293665</v>
       </c>
       <c r="B12">
-        <v>1.08359364940307</v>
+        <v>0.51088453949406498</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0.217694790753894</v>
+        <v>-0.22791335484278799</v>
       </c>
       <c r="B13">
-        <v>-2.4229059487811</v>
+        <v>0.86070396461224696</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.18901794032664501</v>
+        <v>0.45872821777710099</v>
       </c>
       <c r="B14">
-        <v>0.99897517197365204</v>
+        <v>0.493670887818288</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1.8875476517443399</v>
+        <v>0.10716266871801999</v>
       </c>
       <c r="B15">
-        <v>-1.48267395723031</v>
+        <v>-0.53640631238274905</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.33387433195768801</v>
+        <v>0.11061039706365799</v>
       </c>
       <c r="B16">
-        <v>1.0073589887401999</v>
+        <v>-0.475687308016153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0.27471291339333798</v>
+        <v>-5.1356342163461799E-2</v>
       </c>
       <c r="B17">
-        <v>1.0049810729667801</v>
+        <v>0.84676823082946395</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0.362757434374124</v>
+        <v>-5.1044244813667303E-2</v>
       </c>
       <c r="B18">
-        <v>0.98845028654771905</v>
+        <v>0.87672441076789198</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.35315522195393201</v>
+        <v>0.52843820733352898</v>
       </c>
       <c r="B19">
-        <v>1.0158883660947799</v>
+        <v>0.69679051663454905</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.36778814064277199</v>
+        <v>0.29546124552831599</v>
       </c>
       <c r="B20">
-        <v>1.07130447841462</v>
+        <v>-0.47462798371213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.8690030997927001</v>
+        <v>2.09461948990525E-2</v>
       </c>
       <c r="B21">
-        <v>-1.40504187387962</v>
+        <v>0.93664169561454502</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.8108896050516401</v>
+        <v>0.52695084887657195</v>
       </c>
       <c r="B22">
-        <v>-1.3889439331664499</v>
+        <v>0.494141354139011</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1.7869192740176401</v>
+        <v>0.12826412838880299</v>
       </c>
       <c r="B23">
-        <v>-1.4701099610914501</v>
+        <v>0.94446980731872998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1.79183441688276</v>
+        <v>0.58410647169722396</v>
       </c>
       <c r="B24">
-        <v>-1.40660379738782</v>
+        <v>0.63599637314864199</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.48517734135660801</v>
+        <v>0.24744363663455499</v>
       </c>
       <c r="B25">
-        <v>0.85966239223855301</v>
+        <v>-0.36867334299421001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1.82538516570329</v>
+        <v>0.31962888565361203</v>
       </c>
       <c r="B26">
-        <v>-1.46031987521493</v>
+        <v>-0.40188636951079798</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.50087950879763798</v>
+        <v>0.38544444797438898</v>
       </c>
       <c r="B27">
-        <v>0.87163653489295601</v>
+        <v>-0.43673526980614003</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1.78307200764609</v>
+        <v>0.191497798049511</v>
       </c>
       <c r="B28">
-        <v>-1.42011584473887</v>
+        <v>0.83587727740086504</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1.7072979615738899</v>
+        <v>0.376998998884641</v>
       </c>
       <c r="B29">
-        <v>-1.4821113003889701</v>
+        <v>-0.340993601927503</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.16462970321911599</v>
+        <v>0.35650515876504502</v>
       </c>
       <c r="B30">
-        <v>-2.2631615637084002</v>
+        <v>-0.397708641622457</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4.6368831372933399E-2</v>
+        <v>0.64964935649854305</v>
       </c>
       <c r="B31">
-        <v>-2.18707738684079</v>
+        <v>0.63008007858277204</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.118422254644482</v>
+        <v>0.179240247036004</v>
       </c>
       <c r="B32">
-        <v>-2.2087584168971501</v>
+        <v>0.94258011789009999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4.8430071927797698E-2</v>
+        <v>0.59080694466747397</v>
       </c>
       <c r="B33">
-        <v>-2.2590598953966001</v>
+        <v>0.67920894131419096</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.20910065655899701</v>
+        <v>0.44552674513273999</v>
       </c>
       <c r="B34">
-        <v>-2.2669086856597902</v>
+        <v>-0.26788958559526399</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1.67096985141279</v>
+        <v>0.275687287834262</v>
       </c>
       <c r="B35">
-        <v>-1.4371109876386201</v>
+        <v>0.95676659032179101</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1.57292973487359</v>
+        <v>0.73248862681243299</v>
       </c>
       <c r="B36">
-        <v>-1.5157999285677499</v>
+        <v>0.66563796441891898</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1.5266539533535901</v>
+        <v>0.53609468249343495</v>
       </c>
       <c r="B37">
-        <v>-1.47163911847935</v>
+        <v>-0.21193407703377101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.663853492296407</v>
+        <v>0.43605508259398601</v>
       </c>
       <c r="B38">
-        <v>0.61054786238987702</v>
+        <v>-0.114185160947856</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>8.9232840516255907E-2</v>
+        <v>0.54850407962411596</v>
       </c>
       <c r="B39">
-        <v>-2.1372235210260402</v>
+        <v>0.93665946296306701</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0.52573878007050601</v>
+        <v>0.61532646732354102</v>
       </c>
       <c r="B40">
-        <v>0.61156616214570803</v>
+        <v>-0.15443916789272399</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>-7.3489586633194506E-2</v>
+        <v>0.74791794179379001</v>
       </c>
       <c r="B41">
-        <v>-2.1083103719236398</v>
+        <v>0.718970319128864</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>-1.1638411840309001E-2</v>
+        <v>0.54695790073710604</v>
       </c>
       <c r="B42">
-        <v>-2.1011585973103202</v>
+        <v>-8.7612507926575198E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.61778439720232203</v>
+        <v>0.48339134177481002</v>
       </c>
       <c r="B43">
-        <v>0.61956183557956801</v>
+        <v>0.98224145019473397</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0.60496603928399095</v>
+        <v>0.54189500528274603</v>
       </c>
       <c r="B44">
-        <v>0.474053235754966</v>
+        <v>-4.1993714615152097E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>-2.0647925185417599E-2</v>
+        <v>0.70556632193148305</v>
       </c>
       <c r="B45">
-        <v>-2.0811921899802699</v>
+        <v>0.73576031740603498</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>-3.6439631566006603E-2</v>
+        <v>0.60769370791829402</v>
       </c>
       <c r="B46">
-        <v>-2.03090206329215</v>
+        <v>1.00440627182139</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0.53433663861250802</v>
+        <v>0.54699846975601096</v>
       </c>
       <c r="B47">
-        <v>0.48843871231004399</v>
+        <v>0.90550591214320797</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>-3.30458000607168E-2</v>
+        <v>0.59461783613719499</v>
       </c>
       <c r="B48">
-        <v>-2.1044401473784502</v>
+        <v>1.0156646003818299</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>-9.3618698886635598E-2</v>
+        <v>0.62287353251576405</v>
       </c>
       <c r="B49">
-        <v>-2.0715487017756899</v>
+        <v>0.96121649185663505</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0.61094223094271105</v>
+        <v>0.81814569543908</v>
       </c>
       <c r="B50">
-        <v>0.51441189645266705</v>
+        <v>0.84718049266307804</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0.58772452836255895</v>
+        <v>0.63839168460175699</v>
       </c>
       <c r="B51">
-        <v>0.48839324905056702</v>
+        <v>1.00723038864112</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>-6.5433132236387304E-2</v>
+        <v>0.63700747690897197</v>
       </c>
       <c r="B52">
-        <v>-1.9342130722641</v>
+        <v>1.0023479169173899</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1.2750216480653001</v>
+        <v>0.52509110614332999</v>
       </c>
       <c r="B53">
-        <v>-1.4524273243750501</v>
+        <v>4.74836140996691E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>0.531581506937293</v>
+        <v>0.51216904119440898</v>
       </c>
       <c r="B54">
-        <v>0.36706978267601298</v>
+        <v>0.12768716291749399</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1.1706029580278099</v>
+        <v>0.59853883751914305</v>
       </c>
       <c r="B55">
-        <v>-1.38576265393398</v>
+        <v>1.02209103726113</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0.52942627385825702</v>
+        <v>0.53688581686713299</v>
       </c>
       <c r="B56">
-        <v>0.35644667518701001</v>
+        <v>0.136950742577372</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2.2871020451547999E-2</v>
+        <v>0.59904327139480495</v>
       </c>
       <c r="B57">
-        <v>-1.9135579638922</v>
+        <v>1.0010626649354299</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-0.17117501767496901</v>
+        <v>0.801738483596803</v>
       </c>
       <c r="B58">
-        <v>-1.97415309199683</v>
+        <v>0.79266155450644704</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>-0.15324084748394201</v>
+        <v>0.44797841800089</v>
       </c>
       <c r="B59">
-        <v>-1.96105837988395</v>
+        <v>0.108373932416459</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>-0.22875098643321601</v>
+        <v>0.60013527650117005</v>
       </c>
       <c r="B60">
-        <v>-1.9079751165671901</v>
+        <v>1.0359568929509</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.1848040507447499</v>
+        <v>0.53113098160141003</v>
       </c>
       <c r="B61">
-        <v>-1.3753567913018501</v>
+        <v>0.20359310820405699</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/Y.xlsx
+++ b/inputs/Y.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gabriele/Desktop/Poli/OMGP_python/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2AC20F53-56E2-E54F-A9AD-EAD8609F661D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFB853B5-6FFC-5242-9957-E890EBBA0654}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{11A499D1-DA57-7D4C-BE66-4CED774D7DD4}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD032271-4E93-874A-BCBE-ABCEF284B635}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -398,482 +398,2002 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.26414840555765901</v>
+        <v>-0.225752168381956</v>
       </c>
       <c r="B2">
-        <v>0.35941461585450202</v>
+        <v>0.94264420063617704</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.271378936151633</v>
+        <v>2.3786474793035399</v>
       </c>
       <c r="B3">
-        <v>0.41116652981444501</v>
+        <v>-0.34530240961348901</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-6.5547541000036694E-2</v>
+        <v>-0.28722928849909801</v>
       </c>
       <c r="B4">
-        <v>-0.71887381464772804</v>
+        <v>0.92288894337488103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.346458836375797</v>
+        <v>1.7156513757560301</v>
       </c>
       <c r="B5">
-        <v>0.43144065998307501</v>
+        <v>-0.72472342180457705</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-0.51127056297027695</v>
+        <v>-1.70165485620146</v>
       </c>
       <c r="B6">
-        <v>0.86437608247204101</v>
+        <v>0.56565489898591503</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.31146104398476898</v>
+        <v>2.4115023814035599</v>
       </c>
       <c r="B7">
-        <v>0.46994230031891698</v>
+        <v>-0.439920229684019</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.37193867060387098</v>
+        <v>1.7397549919458399</v>
       </c>
       <c r="B8">
-        <v>0.36991944597900001</v>
+        <v>-0.70852272876846101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.31225567565283202</v>
+        <v>-0.32021795420182703</v>
       </c>
       <c r="B9">
-        <v>0.41722736181888798</v>
+        <v>0.97143185658584896</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.388181492458542</v>
+        <v>-1.1038016258443299</v>
       </c>
       <c r="B10">
-        <v>0.52919279187456403</v>
+        <v>0.67695743888648496</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.40284164321316501</v>
+        <v>-1.09988799264673</v>
       </c>
       <c r="B11">
-        <v>0.56209011030899703</v>
+        <v>0.55319872406929704</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.409401198293665</v>
+        <v>-1.6805877575107999</v>
       </c>
       <c r="B12">
-        <v>0.51088453949406498</v>
+        <v>0.61932453601067605</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-0.22791335484278799</v>
+        <v>-0.248162789508868</v>
       </c>
       <c r="B13">
-        <v>0.86070396461224696</v>
+        <v>1.00261588399577</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.45872821777710099</v>
+        <v>-1.0658087170463699</v>
       </c>
       <c r="B14">
-        <v>0.493670887818288</v>
+        <v>0.59946067075529297</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0.10716266871801999</v>
+        <v>-1.6075553774281901</v>
       </c>
       <c r="B15">
-        <v>-0.53640631238274905</v>
+        <v>0.66237589539868402</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.11061039706365799</v>
+        <v>2.3954439243904799</v>
       </c>
       <c r="B16">
-        <v>-0.475687308016153</v>
+        <v>-0.52520649813480502</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-5.1356342163461799E-2</v>
+        <v>2.4372199033759498</v>
       </c>
       <c r="B17">
-        <v>0.84676823082946395</v>
+        <v>-0.52112309264591905</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-5.1044244813667303E-2</v>
+        <v>1.82247981574722</v>
       </c>
       <c r="B18">
-        <v>0.87672441076789198</v>
+        <v>-0.47056067390349199</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.52843820733352898</v>
+        <v>2.3889876005523201</v>
       </c>
       <c r="B19">
-        <v>0.69679051663454905</v>
+        <v>-0.53327804875187701</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.29546124552831599</v>
+        <v>1.86262672914675</v>
       </c>
       <c r="B20">
-        <v>-0.47462798371213</v>
+        <v>-0.30022558282193301</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2.09461948990525E-2</v>
+        <v>2.4866768951832698</v>
       </c>
       <c r="B21">
-        <v>0.93664169561454502</v>
+        <v>-0.70132049281962805</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0.52695084887657195</v>
+        <v>-1.2310753429691601</v>
       </c>
       <c r="B22">
-        <v>0.494141354139011</v>
+        <v>0.62148791881237198</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0.12826412838880299</v>
+        <v>1.83050556491497</v>
       </c>
       <c r="B23">
-        <v>0.94446980731872998</v>
+        <v>-0.20992479697012201</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0.58410647169722396</v>
+        <v>-1.16425295222142</v>
       </c>
       <c r="B24">
-        <v>0.63599637314864199</v>
+        <v>0.59872857029913995</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.24744363663455499</v>
+        <v>-1.20522070505463</v>
       </c>
       <c r="B25">
-        <v>-0.36867334299421001</v>
+        <v>0.55450140719301599</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.31962888565361203</v>
+        <v>1.92159724315323</v>
       </c>
       <c r="B26">
-        <v>-0.40188636951079798</v>
+        <v>-0.2656632426021</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.38544444797438898</v>
+        <v>-0.29173992171360302</v>
       </c>
       <c r="B27">
-        <v>-0.43673526980614003</v>
+        <v>1.1647079944587699</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.191497798049511</v>
+        <v>1.92401271482294</v>
       </c>
       <c r="B28">
-        <v>0.83587727740086504</v>
+        <v>-0.212071963406506</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.376998998884641</v>
+        <v>2.3583325336751999</v>
       </c>
       <c r="B29">
-        <v>-0.340993601927503</v>
+        <v>-0.65576404956633605</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.35650515876504502</v>
+        <v>-0.415936302402444</v>
       </c>
       <c r="B30">
-        <v>-0.397708641622457</v>
+        <v>1.13090871928198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.64964935649854305</v>
+        <v>2.4905216551718001</v>
       </c>
       <c r="B31">
-        <v>0.63008007858277204</v>
+        <v>-0.59419297672208904</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.179240247036004</v>
+        <v>-0.39715326305876297</v>
       </c>
       <c r="B32">
-        <v>0.94258011789009999</v>
+        <v>1.1399229247358</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.59080694466747397</v>
+        <v>-1.3368671470465201</v>
       </c>
       <c r="B33">
-        <v>0.67920894131419096</v>
+        <v>0.62032789073581496</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.44552674513273999</v>
+        <v>-1.29232299780991</v>
       </c>
       <c r="B34">
-        <v>-0.26788958559526399</v>
+        <v>0.65378147211769799</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.275687287834262</v>
+        <v>1.9083740502653901</v>
       </c>
       <c r="B35">
-        <v>0.95676659032179101</v>
+        <v>-7.5621809470380497E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.73248862681243299</v>
+        <v>2.3447034675557799</v>
       </c>
       <c r="B36">
-        <v>0.66563796441891898</v>
+        <v>-0.70672951220668501</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.53609468249343495</v>
+        <v>1.98036423162625</v>
       </c>
       <c r="B37">
-        <v>-0.21193407703377101</v>
+        <v>-1.9827224406747401E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.43605508259398601</v>
+        <v>-0.46651643668190801</v>
       </c>
       <c r="B38">
-        <v>-0.114185160947856</v>
+        <v>1.17474736434047</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.54850407962411596</v>
+        <v>1.93318195232923</v>
       </c>
       <c r="B39">
-        <v>0.93665946296306701</v>
+        <v>-2.5376671841241899E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0.61532646732354102</v>
+        <v>-0.43119557314157603</v>
       </c>
       <c r="B40">
-        <v>-0.15443916789272399</v>
+        <v>1.17501064915006</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0.74791794179379001</v>
+        <v>-0.44973324406202603</v>
       </c>
       <c r="B41">
-        <v>0.718970319128864</v>
+        <v>1.22611241065433</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0.54695790073710604</v>
+        <v>-1.3135642299422801</v>
       </c>
       <c r="B42">
-        <v>-8.7612507926575198E-2</v>
+        <v>0.591648310148574</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.48339134177481002</v>
+        <v>-1.24490796680334</v>
       </c>
       <c r="B43">
-        <v>0.98224145019473397</v>
+        <v>0.573882804839697</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0.54189500528274603</v>
+        <v>1.9877785749313299</v>
       </c>
       <c r="B44">
-        <v>-4.1993714615152097E-2</v>
+        <v>0.121630856209551</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0.70556632193148305</v>
+        <v>-1.1989629166551701</v>
       </c>
       <c r="B45">
-        <v>0.73576031740603498</v>
+        <v>0.65521904192159997</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0.60769370791829402</v>
+        <v>-1.19517926872923</v>
       </c>
       <c r="B46">
-        <v>1.00440627182139</v>
+        <v>0.67053013638688297</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0.54699846975601096</v>
+        <v>2.40597536662214</v>
       </c>
       <c r="B47">
-        <v>0.90550591214320797</v>
+        <v>-0.95299792227936297</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.59461783613719499</v>
+        <v>-1.15954171191448</v>
       </c>
       <c r="B48">
-        <v>1.0156646003818299</v>
+        <v>0.59742285531030004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0.62287353251576405</v>
+        <v>-1.1560690452765301</v>
       </c>
       <c r="B49">
-        <v>0.96121649185663505</v>
+        <v>0.52751157734548904</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0.81814569543908</v>
+        <v>2.2780750181846399</v>
       </c>
       <c r="B50">
-        <v>0.84718049266307804</v>
+        <v>-0.88807722502447795</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0.63839168460175699</v>
+        <v>-1.1808514396282099</v>
       </c>
       <c r="B51">
-        <v>1.00723038864112</v>
+        <v>0.61046141110984398</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0.63700747690897197</v>
+        <v>-0.527123681808922</v>
       </c>
       <c r="B52">
-        <v>1.0023479169173899</v>
+        <v>1.3047307322600199</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0.52509110614332999</v>
+        <v>-1.0765003045193799</v>
       </c>
       <c r="B53">
-        <v>4.74836140996691E-2</v>
+        <v>0.482482239235697</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>0.51216904119440898</v>
+        <v>-1.052175314489</v>
       </c>
       <c r="B54">
-        <v>0.12768716291749399</v>
+        <v>0.644366905628595</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0.59853883751914305</v>
+        <v>2.2606357773165802</v>
       </c>
       <c r="B55">
-        <v>1.02209103726113</v>
+        <v>-0.91089416110482002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0.53688581686713299</v>
+        <v>1.91834425140548</v>
       </c>
       <c r="B56">
-        <v>0.136950742577372</v>
+        <v>0.383236877987435</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>0.59904327139480495</v>
+        <v>-1.02611560453665</v>
       </c>
       <c r="B57">
-        <v>1.0010626649354299</v>
+        <v>0.69297463082925004</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0.801738483596803</v>
+        <v>2.1983805445163802</v>
       </c>
       <c r="B58">
-        <v>0.79266155450644704</v>
+        <v>-0.93133667233218498</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>0.44797841800089</v>
+        <v>-1.0054118163882899</v>
       </c>
       <c r="B59">
-        <v>0.108373932416459</v>
+        <v>0.54683019493996798</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>0.60013527650117005</v>
+        <v>-1.0572447880739599</v>
       </c>
       <c r="B60">
-        <v>1.0359568929509</v>
+        <v>0.64510452660506601</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0.53113098160141003</v>
+        <v>2.2832274759797899</v>
       </c>
       <c r="B61">
-        <v>0.20359310820405699</v>
+        <v>-0.93893722656065304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>-0.587207421702855</v>
+      </c>
+      <c r="B62">
+        <v>1.28967576358838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>-1.0039471203207599</v>
+      </c>
+      <c r="B63">
+        <v>0.73485826590702397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1.9363988810194099</v>
+      </c>
+      <c r="B64">
+        <v>0.44116219589564698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>-0.963102315660469</v>
+      </c>
+      <c r="B65">
+        <v>0.677388041968503</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>-1.0220473248622099</v>
+      </c>
+      <c r="B66">
+        <v>0.60598365788346698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>-0.46446631721612203</v>
+      </c>
+      <c r="B67">
+        <v>1.18591596171602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>-0.86285178978418897</v>
+      </c>
+      <c r="B68">
+        <v>0.58594643736664298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2.2665610026972698</v>
+      </c>
+      <c r="B69">
+        <v>-1.01859874227364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>-0.50313940576796101</v>
+      </c>
+      <c r="B70">
+        <v>1.21543482700883</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2.2879132768326298</v>
+      </c>
+      <c r="B71">
+        <v>-1.0056034943618799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2.1669793278474798</v>
+      </c>
+      <c r="B72">
+        <v>-0.94235164522544301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>-0.85861755744125701</v>
+      </c>
+      <c r="B73">
+        <v>0.486646750348739</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>-0.95178677282353097</v>
+      </c>
+      <c r="B74">
+        <v>0.61365216132136302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1.78673727562</v>
+      </c>
+      <c r="B75">
+        <v>0.59996267835046102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2.1301145358157698</v>
+      </c>
+      <c r="B76">
+        <v>-1.0251906284546299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2.1228160698303</v>
+      </c>
+      <c r="B77">
+        <v>-1.1002493207747299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1.8514551273819599</v>
+      </c>
+      <c r="B78">
+        <v>0.59357942147152598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>-0.83723481629373497</v>
+      </c>
+      <c r="B79">
+        <v>0.73031005521182202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1.8429046623180301</v>
+      </c>
+      <c r="B80">
+        <v>0.71743879076331896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>-0.555835092086017</v>
+      </c>
+      <c r="B81">
+        <v>1.2393091620247001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>-0.71453576366414095</v>
+      </c>
+      <c r="B82">
+        <v>0.52584093506903296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>-0.70410727032072895</v>
+      </c>
+      <c r="B83">
+        <v>0.66756199659505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>-0.71906500863740297</v>
+      </c>
+      <c r="B84">
+        <v>0.62116420832874497</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>-0.69878237471556703</v>
+      </c>
+      <c r="B85">
+        <v>0.63994427953799105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2.0002095897154599</v>
+      </c>
+      <c r="B86">
+        <v>-1.1478134882072899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2.0192213278437499</v>
+      </c>
+      <c r="B87">
+        <v>-1.0625644507038801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>-0.67758150956122298</v>
+      </c>
+      <c r="B88">
+        <v>0.56513557503947298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2.0150724630330599</v>
+      </c>
+      <c r="B89">
+        <v>-1.09794616762666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>-0.68395292970783195</v>
+      </c>
+      <c r="B90">
+        <v>0.72524298244405705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>-0.66555009194808501</v>
+      </c>
+      <c r="B91">
+        <v>0.70489541553656798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1.93299543432714</v>
+      </c>
+      <c r="B92">
+        <v>-1.07122678118538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1.9205727241989099</v>
+      </c>
+      <c r="B93">
+        <v>-1.1516192943377299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1.8392758250777099</v>
+      </c>
+      <c r="B94">
+        <v>-1.1203828906181701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>-0.62654198055736698</v>
+      </c>
+      <c r="B95">
+        <v>0.76280567555154899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1.50827561196004</v>
+      </c>
+      <c r="B96">
+        <v>0.92985319543086298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1.5143985047692401</v>
+      </c>
+      <c r="B97">
+        <v>0.93438003301600903</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>-0.67873853798195505</v>
+      </c>
+      <c r="B98">
+        <v>0.73122427025381798</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>-0.60606161127110003</v>
+      </c>
+      <c r="B99">
+        <v>1.20115112641654</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1.5186533648873899</v>
+      </c>
+      <c r="B100">
+        <v>0.96636718459420501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>-0.48007221029845198</v>
+      </c>
+      <c r="B101">
+        <v>1.1648234196709399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>-0.325770316150369</v>
+      </c>
+      <c r="B102">
+        <v>0.83475923586089396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1.49990172228413</v>
+      </c>
+      <c r="B103">
+        <v>0.97555178437543</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>-0.57223444617473995</v>
+      </c>
+      <c r="B104">
+        <v>1.3114934674820999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1.4393365908760001</v>
+      </c>
+      <c r="B105">
+        <v>1.00919411084087</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1.75984581189866</v>
+      </c>
+      <c r="B106">
+        <v>-1.1293659947911601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>-0.112588540378543</v>
+      </c>
+      <c r="B107">
+        <v>0.79346490667922898</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1.67085087457689</v>
+      </c>
+      <c r="B108">
+        <v>-1.1253620783532401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>-0.11611706273332401</v>
+      </c>
+      <c r="B109">
+        <v>0.85569201815139395</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1.28417478591815</v>
+      </c>
+      <c r="B110">
+        <v>1.03316403936154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1.2151543681535499</v>
+      </c>
+      <c r="B111">
+        <v>1.0652177553231701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>-5.9371538788448003E-2</v>
+      </c>
+      <c r="B112">
+        <v>0.76590690987715704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1.6355123648266201</v>
+      </c>
+      <c r="B113">
+        <v>-1.0673555313202401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>-0.54547887945382101</v>
+      </c>
+      <c r="B114">
+        <v>1.1719731622074001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>-0.60598664298773297</v>
+      </c>
+      <c r="B115">
+        <v>1.10900121142004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1.5516887783542801</v>
+      </c>
+      <c r="B116">
+        <v>-1.1194277492578699</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>-0.31897232334180398</v>
+      </c>
+      <c r="B117">
+        <v>0.866164574232275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>-0.60643382860519601</v>
+      </c>
+      <c r="B118">
+        <v>1.03394252432559</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1.62838289643781</v>
+      </c>
+      <c r="B119">
+        <v>-1.2213055299259601</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>-0.58467012724672396</v>
+      </c>
+      <c r="B120">
+        <v>1.1011456647606299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>-0.29894083401764099</v>
+      </c>
+      <c r="B121">
+        <v>0.85232578586224095</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>-0.65140306663823799</v>
+      </c>
+      <c r="B122">
+        <v>1.08464496764367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>0.96246202973748896</v>
+      </c>
+      <c r="B123">
+        <v>1.19097315206891</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1.4066856064094899</v>
+      </c>
+      <c r="B124">
+        <v>-1.1364753784211601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>-0.52987857530414395</v>
+      </c>
+      <c r="B125">
+        <v>1.04922815233141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>0.85286440806417396</v>
+      </c>
+      <c r="B126">
+        <v>1.22117320155012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>0.256406880545058</v>
+      </c>
+      <c r="B127">
+        <v>1.0335416660376899</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>-0.64873519805726998</v>
+      </c>
+      <c r="B128">
+        <v>0.98435696935448802</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>-0.1747724187942</v>
+      </c>
+      <c r="B129">
+        <v>0.84622568606828197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>0.78428953392996603</v>
+      </c>
+      <c r="B130">
+        <v>1.2808597415315699</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>-0.61331213827888098</v>
+      </c>
+      <c r="B131">
+        <v>0.959054171733148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>0.69718996705820102</v>
+      </c>
+      <c r="B132">
+        <v>1.28052535530386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>0.36202955398221598</v>
+      </c>
+      <c r="B133">
+        <v>1.0811684110994899</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>0.67731899475621904</v>
+      </c>
+      <c r="B134">
+        <v>1.30955301330463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>0.48362577419712799</v>
+      </c>
+      <c r="B135">
+        <v>1.10454450961883</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>0.46945150509480599</v>
+      </c>
+      <c r="B136">
+        <v>1.07492560124853</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>0.51532376044205397</v>
+      </c>
+      <c r="B137">
+        <v>1.1804584327847001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>-9.2187230817480606E-2</v>
+      </c>
+      <c r="B138">
+        <v>0.92968582819090995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>0.58450069608195099</v>
+      </c>
+      <c r="B139">
+        <v>1.2204525344751</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>0.420481075490857</v>
+      </c>
+      <c r="B140">
+        <v>1.23629864970793</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>-2.8968212845815099E-2</v>
+      </c>
+      <c r="B141">
+        <v>0.98045425731171598</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>0.36721170851652102</v>
+      </c>
+      <c r="B142">
+        <v>1.24840055871727</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>-0.60340407239702198</v>
+      </c>
+      <c r="B143">
+        <v>0.80732386792978805</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>-2.0630867915538702E-3</v>
+      </c>
+      <c r="B144">
+        <v>0.88759238959713305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>0.50694588130404405</v>
+      </c>
+      <c r="B145">
+        <v>1.1882900124926701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>6.4023100023228599E-2</v>
+      </c>
+      <c r="B146">
+        <v>0.95797033797376396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>0.416678002096523</v>
+      </c>
+      <c r="B147">
+        <v>1.3436099903426899</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>0.59549132270729899</v>
+      </c>
+      <c r="B148">
+        <v>1.22126683199444</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>0.327877653877018</v>
+      </c>
+      <c r="B149">
+        <v>1.2120974728809499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>0.703254782819979</v>
+      </c>
+      <c r="B150">
+        <v>1.28646878797177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>-0.496925792618504</v>
+      </c>
+      <c r="B151">
+        <v>0.75062717399531997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>7.5658970672980705E-2</v>
+      </c>
+      <c r="B152">
+        <v>1.0749260835783301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1.0860391867400101</v>
+      </c>
+      <c r="B153">
+        <v>-1.0788244191907901</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>0.30338543387622702</v>
+      </c>
+      <c r="B154">
+        <v>1.0393804484746301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>0.299205366538769</v>
+      </c>
+      <c r="B155">
+        <v>1.0952705291556499</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>-0.24000139859444</v>
+      </c>
+      <c r="B156">
+        <v>1.2180014666983101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>-0.20571806019393199</v>
+      </c>
+      <c r="B157">
+        <v>1.1947328147954801</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>0.34481586435723499</v>
+      </c>
+      <c r="B158">
+        <v>1.13537856594529</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>0.87639826675372801</v>
+      </c>
+      <c r="B159">
+        <v>1.40084262148862</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1.03156877149625</v>
+      </c>
+      <c r="B160">
+        <v>-1.03122769072355</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>-0.459601386839601</v>
+      </c>
+      <c r="B161">
+        <v>0.67449950971230299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>-0.37256675262918998</v>
+      </c>
+      <c r="B162">
+        <v>0.600453325803319</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>0.29498046715598902</v>
+      </c>
+      <c r="B163">
+        <v>1.11737255462768</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>-0.32225636713269001</v>
+      </c>
+      <c r="B164">
+        <v>1.2026720259707799</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>-0.45007191455281798</v>
+      </c>
+      <c r="B165">
+        <v>1.13538804611817</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>-0.30945852437523402</v>
+      </c>
+      <c r="B166">
+        <v>0.50977608054707102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>0.77009062827231101</v>
+      </c>
+      <c r="B167">
+        <v>1.45579772222364</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>0.88151931094464697</v>
+      </c>
+      <c r="B168">
+        <v>1.4488528034336099</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>0.81731086058104396</v>
+      </c>
+      <c r="B169">
+        <v>1.48558419904559</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>-0.32263760326173702</v>
+      </c>
+      <c r="B170">
+        <v>0.43642460951301998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>-0.60592402939492396</v>
+      </c>
+      <c r="B171">
+        <v>1.0839421300996299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>-0.243788490487475</v>
+      </c>
+      <c r="B172">
+        <v>0.55043507223579202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>0.93254189375616903</v>
+      </c>
+      <c r="B173">
+        <v>-1.0448398611218499</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>-0.34060455055234301</v>
+      </c>
+      <c r="B174">
+        <v>0.37057237572505702</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>-0.28468679014612303</v>
+      </c>
+      <c r="B175">
+        <v>0.39907560558379301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>-0.29493634066853802</v>
+      </c>
+      <c r="B176">
+        <v>0.39983140856732702</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>-0.31478342955573502</v>
+      </c>
+      <c r="B177">
+        <v>0.45366024301997399</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>0.88569254824623</v>
+      </c>
+      <c r="B178">
+        <v>1.5220966611241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>-0.88813010047593999</v>
+      </c>
+      <c r="B179">
+        <v>1.10852408370373</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>0.97240271512565501</v>
+      </c>
+      <c r="B180">
+        <v>-0.94194505383011096</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>-0.22939417784666699</v>
+      </c>
+      <c r="B181">
+        <v>0.450781513543344</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>0.54303288818099105</v>
+      </c>
+      <c r="B182">
+        <v>1.3096914975956999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>0.92320648043608899</v>
+      </c>
+      <c r="B183">
+        <v>1.5108596747227101</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>-0.994092031031655</v>
+      </c>
+      <c r="B184">
+        <v>0.99202265114900601</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>0.60245601813361105</v>
+      </c>
+      <c r="B185">
+        <v>1.31211847872281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>-0.13983811640482599</v>
+      </c>
+      <c r="B186">
+        <v>0.38711490330652498</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>-1.10755849163821</v>
+      </c>
+      <c r="B187">
+        <v>1.05716338965102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>0.62310890923649798</v>
+      </c>
+      <c r="B188">
+        <v>1.2915577600695201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>0.99085945722048396</v>
+      </c>
+      <c r="B189">
+        <v>-0.79940524084522302</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>-0.20109710557837199</v>
+      </c>
+      <c r="B190">
+        <v>0.25541136775693801</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>-0.182268450951352</v>
+      </c>
+      <c r="B191">
+        <v>0.205693749946154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>0.976524633941519</v>
+      </c>
+      <c r="B192">
+        <v>-0.91985898637570895</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>0.97850162284157904</v>
+      </c>
+      <c r="B193">
+        <v>-0.81240941891213703</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>-0.115010121739109</v>
+      </c>
+      <c r="B194">
+        <v>0.206503972242366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>1.0543123620481301</v>
+      </c>
+      <c r="B195">
+        <v>-0.76570180019447398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>0.84162165139820899</v>
+      </c>
+      <c r="B196">
+        <v>1.63719494143449</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>0.92738199167759905</v>
+      </c>
+      <c r="B197">
+        <v>-0.74954142022137804</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>0.69841565649322701</v>
+      </c>
+      <c r="B198">
+        <v>1.44593531149468</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>0.93351581925780203</v>
+      </c>
+      <c r="B199">
+        <v>-0.80791410509059602</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>-7.6393630258372203E-2</v>
+      </c>
+      <c r="B200">
+        <v>0.18300113484387401</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>0.849186011833309</v>
+      </c>
+      <c r="B201">
+        <v>1.6257474306036901</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>3.8032199769892599E-3</v>
+      </c>
+      <c r="B202">
+        <v>7.8636021313551394E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>0.648114558067313</v>
+      </c>
+      <c r="B203">
+        <v>1.3503055394841601</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>0.98010277127461898</v>
+      </c>
+      <c r="B204">
+        <v>-0.71812766349516699</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>-5.1676240480432499E-3</v>
+      </c>
+      <c r="B205">
+        <v>6.9021654878942906E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>-1.79173629839504</v>
+      </c>
+      <c r="B206">
+        <v>0.89661325268315095</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>1.0325184106557601</v>
+      </c>
+      <c r="B207">
+        <v>-0.69616934529735697</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>0.76976804183328396</v>
+      </c>
+      <c r="B208">
+        <v>1.45283492529681</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>0.68322146460833399</v>
+      </c>
+      <c r="B209">
+        <v>1.67385403105209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>0.77571362071682604</v>
+      </c>
+      <c r="B210">
+        <v>1.7154829714758399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>-1.8213137532186501</v>
+      </c>
+      <c r="B211">
+        <v>0.81342208107901603</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>0.76325057882279801</v>
+      </c>
+      <c r="B212">
+        <v>1.71604674635885</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>8.6503795533842701E-2</v>
+      </c>
+      <c r="B213">
+        <v>7.8369088555286792E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>1.0657582880038801</v>
+      </c>
+      <c r="B214">
+        <v>-0.59062186547606799</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>-1.8408979643588299</v>
+      </c>
+      <c r="B215">
+        <v>0.77406498927921796</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>0.70983596413449601</v>
+      </c>
+      <c r="B216">
+        <v>1.7253143123504</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>0.78538183167682496</v>
+      </c>
+      <c r="B217">
+        <v>1.4472063172879801</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>-2.01983604031135</v>
+      </c>
+      <c r="B218">
+        <v>0.74458762564228098</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>-2.06862226627192</v>
+      </c>
+      <c r="B219">
+        <v>0.76337294443659998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>0.22532193343159099</v>
+      </c>
+      <c r="B220">
+        <v>-7.7305714776371007E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>0.49288728930380699</v>
+      </c>
+      <c r="B221">
+        <v>1.7109291870835099</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>0.832416796261647</v>
+      </c>
+      <c r="B222">
+        <v>1.50265647920873</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>0.52352652277227096</v>
+      </c>
+      <c r="B223">
+        <v>1.6943965872709601</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1.1620436612637799</v>
+      </c>
+      <c r="B224">
+        <v>-0.47824646891209499</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>0.55656390088852503</v>
+      </c>
+      <c r="B225">
+        <v>1.6849674520953699</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>-2.2456817865517098</v>
+      </c>
+      <c r="B226">
+        <v>0.61107300097367101</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>1.13474076627304</v>
+      </c>
+      <c r="B227">
+        <v>-0.43701126661960599</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>0.79459923132673205</v>
+      </c>
+      <c r="B228">
+        <v>1.57501345573412</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>-2.4442196560089999</v>
+      </c>
+      <c r="B229">
+        <v>0.581952268940093</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>0.84143559948687596</v>
+      </c>
+      <c r="B230">
+        <v>1.54208561387229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>0.25940022003586699</v>
+      </c>
+      <c r="B231">
+        <v>1.7927184047521001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>0.52342697373452396</v>
+      </c>
+      <c r="B232">
+        <v>-0.395772462404124</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>1.2939181057659701</v>
+      </c>
+      <c r="B233">
+        <v>-0.31554102992536498</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>0.30471683426504198</v>
+      </c>
+      <c r="B234">
+        <v>1.66810292796598</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>0.82472478008949102</v>
+      </c>
+      <c r="B235">
+        <v>1.5549749243748101</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>0.267182733778281</v>
+      </c>
+      <c r="B236">
+        <v>1.7885288724114901</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1.3042961686030801</v>
+      </c>
+      <c r="B237">
+        <v>-0.20332216288435101</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>0.90011395239880698</v>
+      </c>
+      <c r="B238">
+        <v>1.58648848812599</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>0.17922775409821501</v>
+      </c>
+      <c r="B239">
+        <v>1.7383722571585201</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>0.21230416184579301</v>
+      </c>
+      <c r="B240">
+        <v>1.7879995867702301</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1.3629326630997001</v>
+      </c>
+      <c r="B241">
+        <v>-0.169898580349614</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>0.22620944014376199</v>
+      </c>
+      <c r="B242">
+        <v>1.7623757582891999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>-2.6704136335889199</v>
+      </c>
+      <c r="B243">
+        <v>0.55928662657681005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>0.78892719335976702</v>
+      </c>
+      <c r="B244">
+        <v>1.65266075390696</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>1.3754672005966799</v>
+      </c>
+      <c r="B245">
+        <v>-0.12569407541104199</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>0.80137593681844299</v>
+      </c>
+      <c r="B246">
+        <v>1.63831665393368</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>-2.6214855186325798</v>
+      </c>
+      <c r="B247">
+        <v>0.46591539250661901</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>3.6934929112291202E-2</v>
+      </c>
+      <c r="B248">
+        <v>1.72211899893486</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>0.82652185279566803</v>
+      </c>
+      <c r="B249">
+        <v>1.66929855822943</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>0.75598016364059895</v>
+      </c>
+      <c r="B250">
+        <v>-0.67957763040431596</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>0.73594361751336901</v>
+      </c>
+      <c r="B251">
+        <v>-0.780731932229912</v>
       </c>
     </row>
   </sheetData>
